--- a/data/trans_orig/Predimed-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Estudios-trans_orig.xlsx
@@ -563,7 +563,7 @@
         <v>6.341234287738614</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.069678631122189</v>
+        <v>6.069678631122191</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>6.179361346331723</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.154952603290964</v>
+        <v>6.161342979934823</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.946028260334374</v>
+        <v>5.939243133398169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.067877654086047</v>
+        <v>6.080833286692827</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.534515666654584</v>
+        <v>6.532511400654295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.213869057792273</v>
+        <v>6.213553929053316</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.28896491460569</v>
+        <v>6.297169600037684</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>6.252928576431082</v>
+        <v>6.252928576431083</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6.384847443757379</v>
+        <v>6.384847443757381</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.318444303310273</v>
+        <v>6.318444303310272</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.139237884495859</v>
+        <v>6.131675966844124</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.280198707412847</v>
+        <v>6.279798343046307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.24024672412458</v>
+        <v>6.246432956929715</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.363937058999015</v>
+        <v>6.358774684887524</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.477649844990267</v>
+        <v>6.480048080707097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.394069565739044</v>
+        <v>6.399896032128425</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>6.730976005385878</v>
+        <v>6.730976005385877</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>6.910222702867931</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.526747450224222</v>
+        <v>6.519640951340168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.752707075778567</v>
+        <v>6.763109709841066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.697253123329744</v>
+        <v>6.688663140189307</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.92307167166819</v>
+        <v>6.927190902559163</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.057836983159763</v>
+        <v>7.06340350072498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.944974496051852</v>
+        <v>6.951867636442238</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>6.366755228565322</v>
+        <v>6.366755228565323</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.421682696944055</v>
+        <v>6.421682696944054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.395188612309867</v>
+        <v>6.395188612309869</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.276529559781674</v>
+        <v>6.280704647966803</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.35374107392676</v>
+        <v>6.350830405099249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.339360900200241</v>
+        <v>6.334896418618902</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.457787520405393</v>
+        <v>6.45399215518538</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.488747380881092</v>
+        <v>6.495585022242986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.453642279546702</v>
+        <v>6.452328849859057</v>
       </c>
     </row>
     <row r="16">
